--- a/data/output/Pedido_Semana_07_13022026_mascotas_manufacturado.xlsx
+++ b/data/output/Pedido_Semana_07_13022026_mascotas_manufacturado.xlsx
@@ -678,7 +678,7 @@
         </is>
       </c>
     </row>
-    <row r="3">
+    <row r="3" hidden="1">
       <c r="A3" s="2" t="inlineStr">
         <is>
           <t>2301010026</t>
@@ -727,13 +727,13 @@
         <v>1</v>
       </c>
       <c r="L3" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M3" s="6" t="n">
-        <v>7.6</v>
+        <v>0</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>4.56</v>
+        <v>0</v>
       </c>
       <c r="O3" s="7" t="inlineStr">
         <is>
@@ -741,10 +741,10 @@
         </is>
       </c>
       <c r="P3" s="3" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="Q3" s="3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R3" s="2" t="n">
         <v>0</v>
@@ -756,7 +756,7 @@
         <v>0</v>
       </c>
       <c r="U3" s="8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -811,10 +811,10 @@
         <v>0</v>
       </c>
       <c r="M4" s="6" t="n">
-        <v>7.6</v>
+        <v>3.8</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>4.56</v>
+        <v>2.28</v>
       </c>
       <c r="O4" s="7" t="inlineStr">
         <is>
@@ -822,10 +822,10 @@
         </is>
       </c>
       <c r="P4" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q4" s="3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R4" s="2" t="n">
         <v>0</v>
@@ -837,7 +837,7 @@
         <v>0</v>
       </c>
       <c r="U4" s="8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -892,10 +892,10 @@
         <v>0</v>
       </c>
       <c r="M5" s="6" t="n">
-        <v>6.45</v>
+        <v>16.12</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>3.87</v>
+        <v>9.67</v>
       </c>
       <c r="O5" s="7" t="inlineStr">
         <is>
@@ -912,16 +912,16 @@
         <v>0</v>
       </c>
       <c r="S5" s="2" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="T5" s="3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="U5" s="8" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" hidden="1">
       <c r="A6" s="2" t="inlineStr">
         <is>
           <t>2301010101</t>
@@ -973,10 +973,10 @@
         <v>1</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>6.45</v>
+        <v>0</v>
       </c>
       <c r="N6" s="4" t="n">
-        <v>3.87</v>
+        <v>0</v>
       </c>
       <c r="O6" s="7" t="inlineStr">
         <is>
@@ -984,22 +984,22 @@
         </is>
       </c>
       <c r="P6" s="3" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="Q6" s="3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R6" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S6" s="2" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="T6" s="3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="U6" s="8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1540,10 +1540,10 @@
         <v>1</v>
       </c>
       <c r="M13" s="6" t="n">
-        <v>51.45</v>
+        <v>34.3</v>
       </c>
       <c r="N13" s="4" t="n">
-        <v>30.87</v>
+        <v>20.58</v>
       </c>
       <c r="O13" s="7" t="inlineStr">
         <is>
@@ -1551,22 +1551,22 @@
         </is>
       </c>
       <c r="P13" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q13" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="R13" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S13" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="T13" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="U13" s="8" t="n">
         <v>2</v>
-      </c>
-      <c r="R13" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="S13" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="T13" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="U13" s="8" t="n">
-        <v>3</v>
       </c>
     </row>
     <row r="14" hidden="1">
@@ -1812,7 +1812,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" hidden="1">
       <c r="A17" s="2" t="inlineStr">
         <is>
           <t>2301040053</t>
@@ -1864,10 +1864,10 @@
         <v>0</v>
       </c>
       <c r="M17" s="6" t="n">
-        <v>141.05</v>
+        <v>0</v>
       </c>
       <c r="N17" s="4" t="n">
-        <v>84.63</v>
+        <v>0</v>
       </c>
       <c r="O17" s="7" t="inlineStr">
         <is>
@@ -1875,10 +1875,10 @@
         </is>
       </c>
       <c r="P17" s="3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q17" s="3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R17" s="2" t="n">
         <v>0</v>
@@ -1890,7 +1890,7 @@
         <v>0</v>
       </c>
       <c r="U17" s="8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1987,7 +1987,7 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">7KG      </t>
+          <t xml:space="preserve">1I5KG    </t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
@@ -2004,10 +2004,10 @@
         <v>1</v>
       </c>
       <c r="G19" s="4" t="n">
-        <v>78.65000000000001</v>
+        <v>21.9</v>
       </c>
       <c r="H19" s="4" t="n">
-        <v>31.46</v>
+        <v>8.76</v>
       </c>
       <c r="I19" s="5" t="inlineStr">
         <is>
@@ -2016,20 +2016,20 @@
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>MANTENER</t>
+          <t>REDUCIR 5%</t>
         </is>
       </c>
       <c r="K19" s="3" t="n">
         <v>1</v>
       </c>
       <c r="L19" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>157.3</v>
+        <v>43.8</v>
       </c>
       <c r="N19" s="4" t="n">
-        <v>94.38</v>
+        <v>26.28</v>
       </c>
       <c r="O19" s="7" t="inlineStr">
         <is>
@@ -2037,25 +2037,25 @@
         </is>
       </c>
       <c r="P19" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q19" s="3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R19" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S19" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T19" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U19" s="8" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" hidden="1">
       <c r="A20" s="2" t="inlineStr">
         <is>
           <t>2301040058</t>
@@ -2068,7 +2068,7 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">1I5KG    </t>
+          <t xml:space="preserve">7KG      </t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
@@ -2085,10 +2085,10 @@
         <v>1</v>
       </c>
       <c r="G20" s="4" t="n">
-        <v>21.9</v>
+        <v>78.65000000000001</v>
       </c>
       <c r="H20" s="4" t="n">
-        <v>8.76</v>
+        <v>31.46</v>
       </c>
       <c r="I20" s="5" t="inlineStr">
         <is>
@@ -2097,20 +2097,20 @@
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>REDUCIR 5%</t>
+          <t>MANTENER</t>
         </is>
       </c>
       <c r="K20" s="3" t="n">
         <v>1</v>
       </c>
       <c r="L20" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M20" s="6" t="n">
-        <v>43.8</v>
+        <v>0</v>
       </c>
       <c r="N20" s="4" t="n">
-        <v>26.28</v>
+        <v>0</v>
       </c>
       <c r="O20" s="7" t="inlineStr">
         <is>
@@ -2118,22 +2118,22 @@
         </is>
       </c>
       <c r="P20" s="3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q20" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R20" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S20" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T20" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U20" s="8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2428,7 +2428,7 @@
         <v>1</v>
       </c>
       <c r="L24" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M24" s="6" t="n">
         <v>0</v>
@@ -2460,7 +2460,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" hidden="1">
       <c r="A25" s="2" t="inlineStr">
         <is>
           <t>2301090138</t>
@@ -2512,10 +2512,10 @@
         <v>0</v>
       </c>
       <c r="M25" s="6" t="n">
-        <v>3.9</v>
+        <v>0</v>
       </c>
       <c r="N25" s="4" t="n">
-        <v>2.34</v>
+        <v>0</v>
       </c>
       <c r="O25" s="7" t="inlineStr">
         <is>
@@ -2523,10 +2523,10 @@
         </is>
       </c>
       <c r="P25" s="3" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="Q25" s="3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R25" s="2" t="n">
         <v>0</v>
@@ -2538,7 +2538,7 @@
         <v>0</v>
       </c>
       <c r="U25" s="8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2674,10 +2674,10 @@
         <v>2</v>
       </c>
       <c r="M27" s="6" t="n">
-        <v>50.6</v>
+        <v>44.27</v>
       </c>
       <c r="N27" s="4" t="n">
-        <v>30.36</v>
+        <v>26.56</v>
       </c>
       <c r="O27" s="7" t="inlineStr">
         <is>
@@ -2685,25 +2685,25 @@
         </is>
       </c>
       <c r="P27" s="3" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="Q27" s="3" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="R27" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S27" s="2" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="T27" s="3" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="U27" s="8" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="28">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28" hidden="1">
       <c r="A28" s="2" t="inlineStr">
         <is>
           <t>2401010193</t>
@@ -2752,13 +2752,13 @@
         <v>1</v>
       </c>
       <c r="L28" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M28" s="6" t="n">
-        <v>12.85</v>
+        <v>0</v>
       </c>
       <c r="N28" s="4" t="n">
-        <v>7.71</v>
+        <v>0</v>
       </c>
       <c r="O28" s="7" t="inlineStr">
         <is>
@@ -2766,10 +2766,10 @@
         </is>
       </c>
       <c r="P28" s="3" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="Q28" s="3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R28" s="2" t="n">
         <v>0</v>
@@ -2781,7 +2781,7 @@
         <v>0</v>
       </c>
       <c r="U28" s="8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" hidden="1">
@@ -2865,7 +2865,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" hidden="1">
       <c r="A30" s="2" t="inlineStr">
         <is>
           <t>2401040001</t>
@@ -2917,10 +2917,10 @@
         <v>0</v>
       </c>
       <c r="M30" s="6" t="n">
-        <v>82.2</v>
+        <v>0</v>
       </c>
       <c r="N30" s="4" t="n">
-        <v>49.32</v>
+        <v>0</v>
       </c>
       <c r="O30" s="7" t="inlineStr">
         <is>
@@ -2928,10 +2928,10 @@
         </is>
       </c>
       <c r="P30" s="3" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Q30" s="3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="R30" s="2" t="n">
         <v>0</v>
@@ -2943,7 +2943,7 @@
         <v>0</v>
       </c>
       <c r="U30" s="8" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -3009,25 +3009,25 @@
         </is>
       </c>
       <c r="P31" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q31" s="3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R31" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S31" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T31" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U31" s="8" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" hidden="1">
       <c r="A32" s="2" t="inlineStr">
         <is>
           <t>2401040010</t>
@@ -3079,10 +3079,10 @@
         <v>0</v>
       </c>
       <c r="M32" s="6" t="n">
-        <v>87</v>
+        <v>0</v>
       </c>
       <c r="N32" s="4" t="n">
-        <v>52.2</v>
+        <v>0</v>
       </c>
       <c r="O32" s="7" t="inlineStr">
         <is>
@@ -3090,10 +3090,10 @@
         </is>
       </c>
       <c r="P32" s="3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Q32" s="3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R32" s="2" t="n">
         <v>0</v>
@@ -3105,10 +3105,10 @@
         <v>0</v>
       </c>
       <c r="U32" s="8" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" hidden="1">
       <c r="A33" s="2" t="inlineStr">
         <is>
           <t>2401040014</t>
@@ -3160,10 +3160,10 @@
         <v>0</v>
       </c>
       <c r="M33" s="6" t="n">
-        <v>54.8</v>
+        <v>0</v>
       </c>
       <c r="N33" s="4" t="n">
-        <v>32.88</v>
+        <v>0</v>
       </c>
       <c r="O33" s="7" t="inlineStr">
         <is>
@@ -3171,10 +3171,10 @@
         </is>
       </c>
       <c r="P33" s="3" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Q33" s="3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R33" s="2" t="n">
         <v>0</v>
@@ -3186,10 +3186,10 @@
         <v>0</v>
       </c>
       <c r="U33" s="8" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" hidden="1">
       <c r="A34" s="2" t="inlineStr">
         <is>
           <t>2401040025</t>
@@ -3241,10 +3241,10 @@
         <v>0</v>
       </c>
       <c r="M34" s="6" t="n">
-        <v>88.05</v>
+        <v>0</v>
       </c>
       <c r="N34" s="4" t="n">
-        <v>52.83</v>
+        <v>0</v>
       </c>
       <c r="O34" s="7" t="inlineStr">
         <is>
@@ -3252,10 +3252,10 @@
         </is>
       </c>
       <c r="P34" s="3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q34" s="3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R34" s="2" t="n">
         <v>0</v>
@@ -3267,10 +3267,10 @@
         <v>0</v>
       </c>
       <c r="U34" s="8" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" hidden="1">
       <c r="A35" s="2" t="inlineStr">
         <is>
           <t>2401040026</t>
@@ -3322,10 +3322,10 @@
         <v>0</v>
       </c>
       <c r="M35" s="6" t="n">
-        <v>91.2</v>
+        <v>0</v>
       </c>
       <c r="N35" s="4" t="n">
-        <v>54.72</v>
+        <v>0</v>
       </c>
       <c r="O35" s="7" t="inlineStr">
         <is>
@@ -3333,10 +3333,10 @@
         </is>
       </c>
       <c r="P35" s="3" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Q35" s="3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R35" s="2" t="n">
         <v>0</v>
@@ -3348,7 +3348,7 @@
         <v>0</v>
       </c>
       <c r="U35" s="8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" hidden="1">
@@ -3594,7 +3594,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" hidden="1">
       <c r="A39" s="2" t="inlineStr">
         <is>
           <t>2401040034</t>
@@ -3646,10 +3646,10 @@
         <v>0</v>
       </c>
       <c r="M39" s="6" t="n">
-        <v>91.15000000000001</v>
+        <v>0</v>
       </c>
       <c r="N39" s="4" t="n">
-        <v>54.69</v>
+        <v>0</v>
       </c>
       <c r="O39" s="7" t="inlineStr">
         <is>
@@ -3657,10 +3657,10 @@
         </is>
       </c>
       <c r="P39" s="3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q39" s="3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R39" s="2" t="n">
         <v>0</v>
@@ -3672,10 +3672,10 @@
         <v>0</v>
       </c>
       <c r="U39" s="8" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" hidden="1">
       <c r="A40" s="2" t="inlineStr">
         <is>
           <t>2301090132</t>
@@ -3727,10 +3727,10 @@
         <v>0</v>
       </c>
       <c r="M40" s="6" t="n">
-        <v>11.4</v>
+        <v>0</v>
       </c>
       <c r="N40" s="4" t="n">
-        <v>6.84</v>
+        <v>0</v>
       </c>
       <c r="O40" s="7" t="inlineStr">
         <is>
@@ -3738,25 +3738,25 @@
         </is>
       </c>
       <c r="P40" s="3" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="Q40" s="3" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="R40" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S40" s="2" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="T40" s="3" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="U40" s="8" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" hidden="1">
       <c r="A41" s="2" t="inlineStr">
         <is>
           <t>2301090133</t>
@@ -3808,10 +3808,10 @@
         <v>0</v>
       </c>
       <c r="M41" s="6" t="n">
-        <v>11.1</v>
+        <v>0</v>
       </c>
       <c r="N41" s="4" t="n">
-        <v>6.66</v>
+        <v>0</v>
       </c>
       <c r="O41" s="7" t="inlineStr">
         <is>
@@ -3819,10 +3819,10 @@
         </is>
       </c>
       <c r="P41" s="3" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="Q41" s="3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="R41" s="2" t="n">
         <v>0</v>
@@ -3834,10 +3834,10 @@
         <v>0</v>
       </c>
       <c r="U41" s="8" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" hidden="1">
       <c r="A42" s="2" t="inlineStr">
         <is>
           <t>2301090134</t>
@@ -3889,10 +3889,10 @@
         <v>0</v>
       </c>
       <c r="M42" s="6" t="n">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="N42" s="4" t="n">
-        <v>16.2</v>
+        <v>0</v>
       </c>
       <c r="O42" s="7" t="inlineStr">
         <is>
@@ -3900,22 +3900,22 @@
         </is>
       </c>
       <c r="P42" s="3" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="Q42" s="3" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="R42" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S42" s="2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T42" s="3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U42" s="8" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -3970,10 +3970,10 @@
         <v>0</v>
       </c>
       <c r="M43" s="6" t="n">
-        <v>7.8</v>
+        <v>2.6</v>
       </c>
       <c r="N43" s="4" t="n">
-        <v>4.68</v>
+        <v>1.56</v>
       </c>
       <c r="O43" s="7" t="inlineStr">
         <is>
@@ -3981,22 +3981,22 @@
         </is>
       </c>
       <c r="P43" s="3" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="Q43" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R43" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S43" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="R43" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="S43" s="2" t="n">
-        <v>0</v>
-      </c>
       <c r="T43" s="3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="U43" s="8" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44">
@@ -4048,7 +4048,7 @@
         <v>1</v>
       </c>
       <c r="L44" s="3" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="M44" s="6" t="n">
         <v>3.85</v>
@@ -4080,7 +4080,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="45">
+    <row r="45" hidden="1">
       <c r="A45" s="2" t="inlineStr">
         <is>
           <t>2401010304</t>
@@ -4132,10 +4132,10 @@
         <v>0</v>
       </c>
       <c r="M45" s="6" t="n">
-        <v>3.85</v>
+        <v>0</v>
       </c>
       <c r="N45" s="4" t="n">
-        <v>2.31</v>
+        <v>0</v>
       </c>
       <c r="O45" s="7" t="inlineStr">
         <is>
@@ -4143,10 +4143,10 @@
         </is>
       </c>
       <c r="P45" s="3" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="Q45" s="3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R45" s="2" t="n">
         <v>0</v>
@@ -4158,10 +4158,10 @@
         <v>0</v>
       </c>
       <c r="U45" s="8" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" hidden="1">
       <c r="A46" s="2" t="inlineStr">
         <is>
           <t>2401010305</t>
@@ -4213,10 +4213,10 @@
         <v>0</v>
       </c>
       <c r="M46" s="6" t="n">
-        <v>3.85</v>
+        <v>0</v>
       </c>
       <c r="N46" s="4" t="n">
-        <v>2.31</v>
+        <v>0</v>
       </c>
       <c r="O46" s="7" t="inlineStr">
         <is>
@@ -4224,10 +4224,10 @@
         </is>
       </c>
       <c r="P46" s="3" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="Q46" s="3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R46" s="2" t="n">
         <v>0</v>
@@ -4239,10 +4239,10 @@
         <v>0</v>
       </c>
       <c r="U46" s="8" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" hidden="1">
       <c r="A47" s="2" t="inlineStr">
         <is>
           <t>2101010005</t>
@@ -4291,13 +4291,13 @@
         <v>1</v>
       </c>
       <c r="L47" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M47" s="6" t="n">
-        <v>35.48</v>
+        <v>0</v>
       </c>
       <c r="N47" s="4" t="n">
-        <v>21.29</v>
+        <v>0</v>
       </c>
       <c r="O47" s="7" t="inlineStr">
         <is>
@@ -4305,10 +4305,10 @@
         </is>
       </c>
       <c r="P47" s="3" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="Q47" s="3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R47" s="2" t="n">
         <v>0</v>
@@ -4320,7 +4320,7 @@
         <v>1</v>
       </c>
       <c r="U47" s="8" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48">
@@ -4375,10 +4375,10 @@
         <v>0</v>
       </c>
       <c r="M48" s="6" t="n">
-        <v>8.65</v>
+        <v>12.98</v>
       </c>
       <c r="N48" s="4" t="n">
-        <v>5.19</v>
+        <v>7.79</v>
       </c>
       <c r="O48" s="7" t="inlineStr">
         <is>
@@ -4395,13 +4395,13 @@
         <v>0</v>
       </c>
       <c r="S48" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T48" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U48" s="8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="49">
@@ -4485,7 +4485,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50">
+    <row r="50" hidden="1">
       <c r="A50" s="2" t="inlineStr">
         <is>
           <t>2201040004</t>
@@ -4537,10 +4537,10 @@
         <v>1</v>
       </c>
       <c r="M50" s="6" t="n">
-        <v>11.9</v>
+        <v>0</v>
       </c>
       <c r="N50" s="4" t="n">
-        <v>7.14</v>
+        <v>0</v>
       </c>
       <c r="O50" s="7" t="inlineStr">
         <is>
@@ -4548,10 +4548,10 @@
         </is>
       </c>
       <c r="P50" s="3" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="Q50" s="3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R50" s="2" t="n">
         <v>0</v>
@@ -4563,7 +4563,7 @@
         <v>0</v>
       </c>
       <c r="U50" s="8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
@@ -4647,7 +4647,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="52">
+    <row r="52" hidden="1">
       <c r="A52" s="2" t="inlineStr">
         <is>
           <t>2201040024</t>
@@ -4699,10 +4699,10 @@
         <v>0</v>
       </c>
       <c r="M52" s="6" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="N52" s="4" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="O52" s="7" t="inlineStr">
         <is>
@@ -4710,10 +4710,10 @@
         </is>
       </c>
       <c r="P52" s="3" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="Q52" s="3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R52" s="2" t="n">
         <v>0</v>
@@ -4725,10 +4725,10 @@
         <v>0</v>
       </c>
       <c r="U52" s="8" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" hidden="1">
       <c r="A53" s="2" t="inlineStr">
         <is>
           <t>2201040027</t>
@@ -4780,10 +4780,10 @@
         <v>0</v>
       </c>
       <c r="M53" s="6" t="n">
-        <v>74.40000000000001</v>
+        <v>0</v>
       </c>
       <c r="N53" s="4" t="n">
-        <v>44.64</v>
+        <v>0</v>
       </c>
       <c r="O53" s="7" t="inlineStr">
         <is>
@@ -4791,10 +4791,10 @@
         </is>
       </c>
       <c r="P53" s="3" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Q53" s="3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R53" s="2" t="n">
         <v>0</v>
@@ -4806,7 +4806,7 @@
         <v>0</v>
       </c>
       <c r="U53" s="8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54">
@@ -4971,7 +4971,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56">
+    <row r="56" hidden="1">
       <c r="A56" s="2" t="inlineStr">
         <is>
           <t>2401080001</t>
@@ -5023,10 +5023,10 @@
         <v>0</v>
       </c>
       <c r="M56" s="6" t="n">
-        <v>62.65</v>
+        <v>0</v>
       </c>
       <c r="N56" s="4" t="n">
-        <v>37.59</v>
+        <v>0</v>
       </c>
       <c r="O56" s="7" t="inlineStr">
         <is>
@@ -5034,10 +5034,10 @@
         </is>
       </c>
       <c r="P56" s="3" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="Q56" s="3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R56" s="2" t="n">
         <v>0</v>
@@ -5049,7 +5049,7 @@
         <v>0</v>
       </c>
       <c r="U56" s="8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57">
@@ -5214,7 +5214,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="59">
+    <row r="59" hidden="1">
       <c r="A59" s="2" t="inlineStr">
         <is>
           <t>2301010016</t>
@@ -5266,10 +5266,10 @@
         <v>0</v>
       </c>
       <c r="M59" s="6" t="n">
-        <v>20.55</v>
+        <v>0</v>
       </c>
       <c r="N59" s="4" t="n">
-        <v>12.33</v>
+        <v>0</v>
       </c>
       <c r="O59" s="7" t="inlineStr">
         <is>
@@ -5277,10 +5277,10 @@
         </is>
       </c>
       <c r="P59" s="3" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="Q59" s="3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R59" s="2" t="n">
         <v>0</v>
@@ -5292,10 +5292,10 @@
         <v>0</v>
       </c>
       <c r="U59" s="8" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" hidden="1">
       <c r="A60" s="2" t="inlineStr">
         <is>
           <t>2301010088</t>
@@ -5347,10 +5347,10 @@
         <v>0</v>
       </c>
       <c r="M60" s="6" t="n">
-        <v>19.95</v>
+        <v>0</v>
       </c>
       <c r="N60" s="4" t="n">
-        <v>11.97</v>
+        <v>0</v>
       </c>
       <c r="O60" s="7" t="inlineStr">
         <is>
@@ -5358,10 +5358,10 @@
         </is>
       </c>
       <c r="P60" s="3" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="Q60" s="3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="R60" s="2" t="n">
         <v>0</v>
@@ -5373,7 +5373,7 @@
         <v>0</v>
       </c>
       <c r="U60" s="8" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" hidden="1">
@@ -5470,138 +5470,138 @@
       </c>
       <c r="C62" s="2" t="inlineStr">
         <is>
+          <t xml:space="preserve">BMENSUAL </t>
+        </is>
+      </c>
+      <c r="D62" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">UNICO   </t>
+        </is>
+      </c>
+      <c r="E62" s="2" t="inlineStr">
+        <is>
+          <t>mascotas_manufacturado</t>
+        </is>
+      </c>
+      <c r="F62" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="G62" s="4" t="n">
+        <v>30.92</v>
+      </c>
+      <c r="H62" s="4" t="n">
+        <v>12.37</v>
+      </c>
+      <c r="I62" s="5" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="J62" s="2" t="inlineStr">
+        <is>
+          <t>REDUCIR 19%</t>
+        </is>
+      </c>
+      <c r="K62" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M62" s="6" t="n">
+        <v>30.92</v>
+      </c>
+      <c r="N62" s="4" t="n">
+        <v>18.55</v>
+      </c>
+      <c r="O62" s="7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DISTRIBUCIONES PROANIMAL SL                                                                                             </t>
+        </is>
+      </c>
+      <c r="P62" s="3" t="n">
+        <v>7</v>
+      </c>
+      <c r="Q62" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R62" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S62" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="T62" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="U62" s="8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" hidden="1">
+      <c r="A63" s="2" t="inlineStr">
+        <is>
+          <t>2301090076</t>
+        </is>
+      </c>
+      <c r="B63" s="2" t="inlineStr">
+        <is>
+          <t>MULTIPACK DENTASTIX RAZA GRANDE</t>
+        </is>
+      </c>
+      <c r="C63" s="2" t="inlineStr">
+        <is>
           <t xml:space="preserve">MENSUAL  </t>
         </is>
       </c>
-      <c r="D62" s="2" t="inlineStr">
+      <c r="D63" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">UNICO   </t>
         </is>
       </c>
-      <c r="E62" s="2" t="inlineStr">
-        <is>
-          <t>mascotas_manufacturado</t>
-        </is>
-      </c>
-      <c r="F62" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="G62" s="4" t="n">
+      <c r="E63" s="2" t="inlineStr">
+        <is>
+          <t>mascotas_manufacturado</t>
+        </is>
+      </c>
+      <c r="F63" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G63" s="4" t="n">
         <v>17.1</v>
       </c>
-      <c r="H62" s="4" t="n">
+      <c r="H63" s="4" t="n">
         <v>6.84</v>
       </c>
-      <c r="I62" s="5" t="inlineStr">
+      <c r="I63" s="5" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="J62" s="2" t="inlineStr">
+      <c r="J63" s="2" t="inlineStr">
         <is>
           <t>REDUCIR 19%</t>
         </is>
       </c>
-      <c r="K62" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="L62" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" s="6" t="n">
-        <v>51.3</v>
-      </c>
-      <c r="N62" s="4" t="n">
-        <v>30.78</v>
-      </c>
-      <c r="O62" s="7" t="inlineStr">
+      <c r="K63" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N63" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O63" s="7" t="inlineStr">
         <is>
           <t xml:space="preserve">DISTRIBUCIONES PROANIMAL SL                                                                                             </t>
         </is>
       </c>
-      <c r="P62" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q62" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="R62" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="S62" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="T62" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="U62" s="8" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" s="2" t="inlineStr">
-        <is>
-          <t>2301090076</t>
-        </is>
-      </c>
-      <c r="B63" s="2" t="inlineStr">
-        <is>
-          <t>MULTIPACK DENTASTIX RAZA GRANDE</t>
-        </is>
-      </c>
-      <c r="C63" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">BMENSUAL </t>
-        </is>
-      </c>
-      <c r="D63" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">UNICO   </t>
-        </is>
-      </c>
-      <c r="E63" s="2" t="inlineStr">
-        <is>
-          <t>mascotas_manufacturado</t>
-        </is>
-      </c>
-      <c r="F63" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="G63" s="4" t="n">
-        <v>30.92</v>
-      </c>
-      <c r="H63" s="4" t="n">
-        <v>12.37</v>
-      </c>
-      <c r="I63" s="5" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="J63" s="2" t="inlineStr">
-        <is>
-          <t>REDUCIR 19%</t>
-        </is>
-      </c>
-      <c r="K63" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="L63" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M63" s="6" t="n">
-        <v>30.92</v>
-      </c>
-      <c r="N63" s="4" t="n">
-        <v>18.55</v>
-      </c>
-      <c r="O63" s="7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">DISTRIBUCIONES PROANIMAL SL                                                                                             </t>
-        </is>
-      </c>
       <c r="P63" s="3" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="Q63" s="3" t="n">
         <v>0</v>
@@ -5610,16 +5610,16 @@
         <v>0</v>
       </c>
       <c r="S63" s="2" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="T63" s="3" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="U63" s="8" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" hidden="1">
       <c r="A64" s="2" t="inlineStr">
         <is>
           <t>2401010186</t>
@@ -5671,10 +5671,10 @@
         <v>0</v>
       </c>
       <c r="M64" s="6" t="n">
-        <v>9.449999999999999</v>
+        <v>0</v>
       </c>
       <c r="N64" s="4" t="n">
-        <v>5.67</v>
+        <v>0</v>
       </c>
       <c r="O64" s="7" t="inlineStr">
         <is>
@@ -5682,25 +5682,25 @@
         </is>
       </c>
       <c r="P64" s="3" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="Q64" s="3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R64" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S64" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T64" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U64" s="8" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" hidden="1">
       <c r="A65" s="2" t="inlineStr">
         <is>
           <t>2401090028</t>
@@ -5752,10 +5752,10 @@
         <v>1</v>
       </c>
       <c r="M65" s="6" t="n">
-        <v>4.55</v>
+        <v>0</v>
       </c>
       <c r="N65" s="4" t="n">
-        <v>2.73</v>
+        <v>0</v>
       </c>
       <c r="O65" s="7" t="inlineStr">
         <is>
@@ -5763,10 +5763,10 @@
         </is>
       </c>
       <c r="P65" s="3" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="Q65" s="3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R65" s="2" t="n">
         <v>0</v>
@@ -5778,7 +5778,7 @@
         <v>0</v>
       </c>
       <c r="U65" s="8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66">
@@ -5914,10 +5914,10 @@
         <v>0</v>
       </c>
       <c r="M67" s="6" t="n">
-        <v>110.92</v>
+        <v>36.97</v>
       </c>
       <c r="N67" s="4" t="n">
-        <v>66.55</v>
+        <v>22.18</v>
       </c>
       <c r="O67" s="7" t="inlineStr">
         <is>
@@ -5925,10 +5925,10 @@
         </is>
       </c>
       <c r="P67" s="3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q67" s="3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R67" s="2" t="n">
         <v>0</v>
@@ -5940,7 +5940,7 @@
         <v>0</v>
       </c>
       <c r="U67" s="8" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68">
@@ -5995,10 +5995,10 @@
         <v>0</v>
       </c>
       <c r="M68" s="6" t="n">
-        <v>59.1</v>
+        <v>29.55</v>
       </c>
       <c r="N68" s="4" t="n">
-        <v>35.46</v>
+        <v>17.73</v>
       </c>
       <c r="O68" s="7" t="inlineStr">
         <is>
@@ -6006,25 +6006,25 @@
         </is>
       </c>
       <c r="P68" s="3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q68" s="3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R68" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S68" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T68" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U68" s="8" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" hidden="1">
       <c r="A69" s="2" t="inlineStr">
         <is>
           <t>2304030009</t>
@@ -6076,10 +6076,10 @@
         <v>0</v>
       </c>
       <c r="M69" s="6" t="n">
-        <v>100.15</v>
+        <v>0</v>
       </c>
       <c r="N69" s="4" t="n">
-        <v>60.09</v>
+        <v>0</v>
       </c>
       <c r="O69" s="7" t="inlineStr">
         <is>
@@ -6087,10 +6087,10 @@
         </is>
       </c>
       <c r="P69" s="3" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="Q69" s="3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R69" s="2" t="n">
         <v>0</v>
@@ -6102,7 +6102,7 @@
         <v>0</v>
       </c>
       <c r="U69" s="8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70">
@@ -6348,7 +6348,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="73">
+    <row r="73" hidden="1">
       <c r="A73" s="2" t="inlineStr">
         <is>
           <t>2401030024</t>
@@ -6400,10 +6400,10 @@
         <v>0</v>
       </c>
       <c r="M73" s="6" t="n">
-        <v>83.34999999999999</v>
+        <v>0</v>
       </c>
       <c r="N73" s="4" t="n">
-        <v>50.01</v>
+        <v>0</v>
       </c>
       <c r="O73" s="7" t="inlineStr">
         <is>
@@ -6411,10 +6411,10 @@
         </is>
       </c>
       <c r="P73" s="3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q73" s="3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R73" s="2" t="n">
         <v>0</v>
@@ -6426,7 +6426,7 @@
         <v>0</v>
       </c>
       <c r="U73" s="8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74">
@@ -6481,10 +6481,10 @@
         <v>0</v>
       </c>
       <c r="M74" s="6" t="n">
-        <v>24.5</v>
+        <v>18.38</v>
       </c>
       <c r="N74" s="4" t="n">
-        <v>14.7</v>
+        <v>11.03</v>
       </c>
       <c r="O74" s="7" t="inlineStr">
         <is>
@@ -6492,25 +6492,25 @@
         </is>
       </c>
       <c r="P74" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q74" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="R74" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S74" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="T74" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="U74" s="8" t="n">
         <v>3</v>
       </c>
-      <c r="R74" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="S74" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="T74" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="U74" s="8" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="75">
+    </row>
+    <row r="75" hidden="1">
       <c r="A75" s="2" t="inlineStr">
         <is>
           <t>2701020030</t>
@@ -6562,10 +6562,10 @@
         <v>0</v>
       </c>
       <c r="M75" s="6" t="n">
-        <v>18.45</v>
+        <v>0</v>
       </c>
       <c r="N75" s="4" t="n">
-        <v>11.07</v>
+        <v>0</v>
       </c>
       <c r="O75" s="7" t="inlineStr">
         <is>
@@ -6573,10 +6573,10 @@
         </is>
       </c>
       <c r="P75" s="3" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Q75" s="3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R75" s="2" t="n">
         <v>0</v>
@@ -6588,7 +6588,7 @@
         <v>0</v>
       </c>
       <c r="U75" s="8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" hidden="1">
@@ -6721,7 +6721,7 @@
         <v>1</v>
       </c>
       <c r="L77" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M77" s="6" t="n">
         <v>0</v>
@@ -6964,7 +6964,7 @@
         <v>1</v>
       </c>
       <c r="L80" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M80" s="6" t="n">
         <v>0</v>
@@ -7320,7 +7320,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="85">
+    <row r="85" hidden="1">
       <c r="A85" s="2" t="inlineStr">
         <is>
           <t>2301060012</t>
@@ -7372,10 +7372,10 @@
         <v>0</v>
       </c>
       <c r="M85" s="6" t="n">
-        <v>206.7</v>
+        <v>0</v>
       </c>
       <c r="N85" s="4" t="n">
-        <v>124.02</v>
+        <v>0</v>
       </c>
       <c r="O85" s="7" t="inlineStr">
         <is>
@@ -7383,10 +7383,10 @@
         </is>
       </c>
       <c r="P85" s="3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q85" s="3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R85" s="2" t="n">
         <v>0</v>
@@ -7398,7 +7398,7 @@
         <v>0</v>
       </c>
       <c r="U85" s="8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" hidden="1">
@@ -7482,7 +7482,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87">
+    <row r="87" hidden="1">
       <c r="A87" s="2" t="inlineStr">
         <is>
           <t>2301010178</t>
@@ -7534,10 +7534,10 @@
         <v>2</v>
       </c>
       <c r="M87" s="6" t="n">
-        <v>35.17</v>
+        <v>0</v>
       </c>
       <c r="N87" s="4" t="n">
-        <v>21.1</v>
+        <v>0</v>
       </c>
       <c r="O87" s="7" t="inlineStr">
         <is>
@@ -7545,10 +7545,10 @@
         </is>
       </c>
       <c r="P87" s="3" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="Q87" s="3" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="R87" s="2" t="n">
         <v>0</v>
@@ -7560,7 +7560,7 @@
         <v>0</v>
       </c>
       <c r="U87" s="8" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88">
@@ -7615,10 +7615,10 @@
         <v>0</v>
       </c>
       <c r="M88" s="6" t="n">
-        <v>10.8</v>
+        <v>5.4</v>
       </c>
       <c r="N88" s="4" t="n">
-        <v>6.48</v>
+        <v>3.24</v>
       </c>
       <c r="O88" s="7" t="inlineStr">
         <is>
@@ -7626,10 +7626,10 @@
         </is>
       </c>
       <c r="P88" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q88" s="3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R88" s="2" t="n">
         <v>0</v>
@@ -7641,7 +7641,7 @@
         <v>0</v>
       </c>
       <c r="U88" s="8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89">
@@ -7806,7 +7806,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="91">
+    <row r="91" hidden="1">
       <c r="A91" s="2" t="inlineStr">
         <is>
           <t>2301090031</t>
@@ -7858,10 +7858,10 @@
         <v>0</v>
       </c>
       <c r="M91" s="6" t="n">
-        <v>11.7</v>
+        <v>0</v>
       </c>
       <c r="N91" s="4" t="n">
-        <v>7.02</v>
+        <v>0</v>
       </c>
       <c r="O91" s="7" t="inlineStr">
         <is>
@@ -7869,10 +7869,10 @@
         </is>
       </c>
       <c r="P91" s="3" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="Q91" s="3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R91" s="2" t="n">
         <v>0</v>
@@ -7884,7 +7884,7 @@
         <v>0</v>
       </c>
       <c r="U91" s="8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" hidden="1">
@@ -8020,10 +8020,10 @@
         <v>0</v>
       </c>
       <c r="M93" s="6" t="n">
-        <v>54.4</v>
+        <v>27.2</v>
       </c>
       <c r="N93" s="4" t="n">
-        <v>32.64</v>
+        <v>16.32</v>
       </c>
       <c r="O93" s="7" t="inlineStr">
         <is>
@@ -8031,10 +8031,10 @@
         </is>
       </c>
       <c r="P93" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q93" s="3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R93" s="2" t="n">
         <v>0</v>
@@ -8046,10 +8046,10 @@
         <v>0</v>
       </c>
       <c r="U93" s="8" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="94">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" hidden="1">
       <c r="A94" s="2" t="inlineStr">
         <is>
           <t>2302050017</t>
@@ -8101,10 +8101,10 @@
         <v>0</v>
       </c>
       <c r="M94" s="6" t="n">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="N94" s="4" t="n">
-        <v>22.8</v>
+        <v>0</v>
       </c>
       <c r="O94" s="7" t="inlineStr">
         <is>
@@ -8112,10 +8112,10 @@
         </is>
       </c>
       <c r="P94" s="3" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="Q94" s="3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R94" s="2" t="n">
         <v>0</v>
@@ -8127,7 +8127,7 @@
         <v>0</v>
       </c>
       <c r="U94" s="8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95">
@@ -8182,10 +8182,10 @@
         <v>0</v>
       </c>
       <c r="M95" s="6" t="n">
-        <v>4.55</v>
+        <v>6.82</v>
       </c>
       <c r="N95" s="4" t="n">
-        <v>2.73</v>
+        <v>4.09</v>
       </c>
       <c r="O95" s="7" t="inlineStr">
         <is>
@@ -8202,16 +8202,16 @@
         <v>0</v>
       </c>
       <c r="S95" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T95" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U95" s="8" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="96">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="96" hidden="1">
       <c r="A96" s="2" t="inlineStr">
         <is>
           <t>2304010047</t>
@@ -8263,10 +8263,10 @@
         <v>0</v>
       </c>
       <c r="M96" s="6" t="n">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="N96" s="4" t="n">
-        <v>2.7</v>
+        <v>0</v>
       </c>
       <c r="O96" s="7" t="inlineStr">
         <is>
@@ -8274,25 +8274,25 @@
         </is>
       </c>
       <c r="P96" s="3" t="n">
-        <v>0</v>
+        <v>345</v>
       </c>
       <c r="Q96" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R96" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S96" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="R96" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="S96" s="2" t="n">
-        <v>0</v>
-      </c>
       <c r="T96" s="3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U96" s="8" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" hidden="1">
       <c r="A97" s="2" t="inlineStr">
         <is>
           <t>2401010237</t>
@@ -8344,10 +8344,10 @@
         <v>1</v>
       </c>
       <c r="M97" s="6" t="n">
-        <v>4.1</v>
+        <v>0</v>
       </c>
       <c r="N97" s="4" t="n">
-        <v>2.46</v>
+        <v>0</v>
       </c>
       <c r="O97" s="7" t="inlineStr">
         <is>
@@ -8355,25 +8355,25 @@
         </is>
       </c>
       <c r="P97" s="3" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="Q97" s="3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R97" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S97" s="2" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="T97" s="3" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="U97" s="8" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" hidden="1">
       <c r="A98" s="2" t="inlineStr">
         <is>
           <t>2401010253</t>
@@ -8425,10 +8425,10 @@
         <v>0</v>
       </c>
       <c r="M98" s="6" t="n">
-        <v>12.2</v>
+        <v>0</v>
       </c>
       <c r="N98" s="4" t="n">
-        <v>7.32</v>
+        <v>0</v>
       </c>
       <c r="O98" s="7" t="inlineStr">
         <is>
@@ -8436,10 +8436,10 @@
         </is>
       </c>
       <c r="P98" s="3" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="Q98" s="3" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="R98" s="2" t="n">
         <v>0</v>
@@ -8451,7 +8451,7 @@
         <v>0</v>
       </c>
       <c r="U98" s="8" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99">
@@ -8535,7 +8535,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="100">
+    <row r="100" hidden="1">
       <c r="A100" s="2" t="inlineStr">
         <is>
           <t>2401070019</t>
@@ -8598,10 +8598,10 @@
         </is>
       </c>
       <c r="P100" s="3" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="Q100" s="3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R100" s="2" t="n">
         <v>0</v>
@@ -8613,10 +8613,10 @@
         <v>0</v>
       </c>
       <c r="U100" s="8" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" hidden="1">
       <c r="A101" s="2" t="inlineStr">
         <is>
           <t>2404010015</t>
@@ -8668,10 +8668,10 @@
         <v>0</v>
       </c>
       <c r="M101" s="6" t="n">
-        <v>53.5</v>
+        <v>0</v>
       </c>
       <c r="N101" s="4" t="n">
-        <v>32.1</v>
+        <v>0</v>
       </c>
       <c r="O101" s="7" t="inlineStr">
         <is>
@@ -8679,10 +8679,10 @@
         </is>
       </c>
       <c r="P101" s="3" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="Q101" s="3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R101" s="2" t="n">
         <v>0</v>
@@ -8694,7 +8694,7 @@
         <v>0</v>
       </c>
       <c r="U101" s="8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102">
@@ -8859,7 +8859,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104">
+    <row r="104" hidden="1">
       <c r="A104" s="2" t="inlineStr">
         <is>
           <t>2301090008</t>
@@ -8911,10 +8911,10 @@
         <v>1</v>
       </c>
       <c r="M104" s="6" t="n">
-        <v>4.25</v>
+        <v>0</v>
       </c>
       <c r="N104" s="4" t="n">
-        <v>2.55</v>
+        <v>0</v>
       </c>
       <c r="O104" s="7" t="inlineStr">
         <is>
@@ -8922,10 +8922,10 @@
         </is>
       </c>
       <c r="P104" s="3" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="Q104" s="3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R104" s="2" t="n">
         <v>0</v>
@@ -8937,7 +8937,7 @@
         <v>0</v>
       </c>
       <c r="U104" s="8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105" hidden="1">
@@ -9021,7 +9021,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106">
+    <row r="106" hidden="1">
       <c r="A106" s="2" t="inlineStr">
         <is>
           <t>2401010038</t>
@@ -9070,13 +9070,13 @@
         <v>1</v>
       </c>
       <c r="L106" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M106" s="6" t="n">
-        <v>1.65</v>
+        <v>0</v>
       </c>
       <c r="N106" s="4" t="n">
-        <v>0.99</v>
+        <v>0</v>
       </c>
       <c r="O106" s="7" t="inlineStr">
         <is>
@@ -9084,10 +9084,10 @@
         </is>
       </c>
       <c r="P106" s="3" t="n">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="Q106" s="3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R106" s="2" t="n">
         <v>0</v>
@@ -9099,10 +9099,10 @@
         <v>0</v>
       </c>
       <c r="U106" s="8" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" hidden="1">
       <c r="A107" s="2" t="inlineStr">
         <is>
           <t>2401010039</t>
@@ -9151,13 +9151,13 @@
         <v>1</v>
       </c>
       <c r="L107" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M107" s="6" t="n">
-        <v>1.65</v>
+        <v>0</v>
       </c>
       <c r="N107" s="4" t="n">
-        <v>0.99</v>
+        <v>0</v>
       </c>
       <c r="O107" s="7" t="inlineStr">
         <is>
@@ -9165,25 +9165,25 @@
         </is>
       </c>
       <c r="P107" s="3" t="n">
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="Q107" s="3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R107" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S107" s="2" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="T107" s="3" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="U107" s="8" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" hidden="1">
       <c r="A108" s="2" t="inlineStr">
         <is>
           <t>2401010107</t>
@@ -9235,10 +9235,10 @@
         <v>0</v>
       </c>
       <c r="M108" s="6" t="n">
-        <v>14.75</v>
+        <v>0</v>
       </c>
       <c r="N108" s="4" t="n">
-        <v>8.85</v>
+        <v>0</v>
       </c>
       <c r="O108" s="7" t="inlineStr">
         <is>
@@ -9246,10 +9246,10 @@
         </is>
       </c>
       <c r="P108" s="3" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="Q108" s="3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R108" s="2" t="n">
         <v>0</v>
@@ -9261,10 +9261,10 @@
         <v>0</v>
       </c>
       <c r="U108" s="8" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="109">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" hidden="1">
       <c r="A109" s="2" t="inlineStr">
         <is>
           <t>2401010168</t>
@@ -9316,10 +9316,10 @@
         <v>0</v>
       </c>
       <c r="M109" s="6" t="n">
-        <v>28.15</v>
+        <v>0</v>
       </c>
       <c r="N109" s="4" t="n">
-        <v>16.89</v>
+        <v>0</v>
       </c>
       <c r="O109" s="7" t="inlineStr">
         <is>
@@ -9327,25 +9327,25 @@
         </is>
       </c>
       <c r="P109" s="3" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="Q109" s="3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R109" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S109" s="2" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="T109" s="3" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="U109" s="8" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="110">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" hidden="1">
       <c r="A110" s="2" t="inlineStr">
         <is>
           <t>2401010190</t>
@@ -9397,10 +9397,10 @@
         <v>0</v>
       </c>
       <c r="M110" s="6" t="n">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="N110" s="4" t="n">
-        <v>12.6</v>
+        <v>0</v>
       </c>
       <c r="O110" s="7" t="inlineStr">
         <is>
@@ -9408,10 +9408,10 @@
         </is>
       </c>
       <c r="P110" s="3" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="Q110" s="3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R110" s="2" t="n">
         <v>0</v>
@@ -9423,10 +9423,10 @@
         <v>0</v>
       </c>
       <c r="U110" s="8" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="111">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" hidden="1">
       <c r="A111" s="2" t="inlineStr">
         <is>
           <t>2401010247</t>
@@ -9478,10 +9478,10 @@
         <v>0</v>
       </c>
       <c r="M111" s="6" t="n">
-        <v>3.85</v>
+        <v>0</v>
       </c>
       <c r="N111" s="4" t="n">
-        <v>2.31</v>
+        <v>0</v>
       </c>
       <c r="O111" s="7" t="inlineStr">
         <is>
@@ -9489,10 +9489,10 @@
         </is>
       </c>
       <c r="P111" s="3" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="Q111" s="3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R111" s="2" t="n">
         <v>0</v>
@@ -9504,7 +9504,7 @@
         <v>0</v>
       </c>
       <c r="U111" s="8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112">
@@ -9588,7 +9588,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="113">
+    <row r="113" hidden="1">
       <c r="A113" s="2" t="inlineStr">
         <is>
           <t>2401010310</t>
@@ -9640,10 +9640,10 @@
         <v>0</v>
       </c>
       <c r="M113" s="6" t="n">
-        <v>7.65</v>
+        <v>0</v>
       </c>
       <c r="N113" s="4" t="n">
-        <v>4.59</v>
+        <v>0</v>
       </c>
       <c r="O113" s="7" t="inlineStr">
         <is>
@@ -9651,10 +9651,10 @@
         </is>
       </c>
       <c r="P113" s="3" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="Q113" s="3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R113" s="2" t="n">
         <v>0</v>
@@ -9666,10 +9666,10 @@
         <v>0</v>
       </c>
       <c r="U113" s="8" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="114">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" hidden="1">
       <c r="A114" s="2" t="inlineStr">
         <is>
           <t>2401090007</t>
@@ -9721,10 +9721,10 @@
         <v>0</v>
       </c>
       <c r="M114" s="6" t="n">
-        <v>4.75</v>
+        <v>0</v>
       </c>
       <c r="N114" s="4" t="n">
-        <v>2.85</v>
+        <v>0</v>
       </c>
       <c r="O114" s="7" t="inlineStr">
         <is>
@@ -9732,10 +9732,10 @@
         </is>
       </c>
       <c r="P114" s="3" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="Q114" s="3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R114" s="2" t="n">
         <v>0</v>
@@ -9747,10 +9747,10 @@
         <v>0</v>
       </c>
       <c r="U114" s="8" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="115">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" hidden="1">
       <c r="A115" s="2" t="inlineStr">
         <is>
           <t>2401090010</t>
@@ -9802,10 +9802,10 @@
         <v>0</v>
       </c>
       <c r="M115" s="6" t="n">
-        <v>4.75</v>
+        <v>0</v>
       </c>
       <c r="N115" s="4" t="n">
-        <v>2.85</v>
+        <v>0</v>
       </c>
       <c r="O115" s="7" t="inlineStr">
         <is>
@@ -9813,25 +9813,25 @@
         </is>
       </c>
       <c r="P115" s="3" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="Q115" s="3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R115" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S115" s="2" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="T115" s="3" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="U115" s="8" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="116">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" hidden="1">
       <c r="A116" s="2" t="inlineStr">
         <is>
           <t>2301080019</t>
@@ -9883,10 +9883,10 @@
         <v>0</v>
       </c>
       <c r="M116" s="6" t="n">
-        <v>20.17</v>
+        <v>0</v>
       </c>
       <c r="N116" s="4" t="n">
-        <v>12.1</v>
+        <v>0</v>
       </c>
       <c r="O116" s="7" t="inlineStr">
         <is>
@@ -9894,25 +9894,25 @@
         </is>
       </c>
       <c r="P116" s="3" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Q116" s="3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="R116" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S116" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T116" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U116" s="8" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="117">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" hidden="1">
       <c r="A117" s="2" t="inlineStr">
         <is>
           <t>2301080032</t>
@@ -9964,10 +9964,10 @@
         <v>0</v>
       </c>
       <c r="M117" s="6" t="n">
-        <v>5.8</v>
+        <v>0</v>
       </c>
       <c r="N117" s="4" t="n">
-        <v>3.48</v>
+        <v>0</v>
       </c>
       <c r="O117" s="7" t="inlineStr">
         <is>
@@ -9975,10 +9975,10 @@
         </is>
       </c>
       <c r="P117" s="3" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="Q117" s="3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R117" s="2" t="n">
         <v>0</v>
@@ -9990,10 +9990,10 @@
         <v>0</v>
       </c>
       <c r="U117" s="8" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="118">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" hidden="1">
       <c r="A118" s="2" t="inlineStr">
         <is>
           <t>2301080034</t>
@@ -10045,10 +10045,10 @@
         <v>0</v>
       </c>
       <c r="M118" s="6" t="n">
-        <v>11.75</v>
+        <v>0</v>
       </c>
       <c r="N118" s="4" t="n">
-        <v>7.05</v>
+        <v>0</v>
       </c>
       <c r="O118" s="7" t="inlineStr">
         <is>
@@ -10056,25 +10056,25 @@
         </is>
       </c>
       <c r="P118" s="3" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="Q118" s="3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R118" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S118" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T118" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U118" s="8" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="119">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" hidden="1">
       <c r="A119" s="2" t="inlineStr">
         <is>
           <t>2301080035</t>
@@ -10126,10 +10126,10 @@
         <v>-3</v>
       </c>
       <c r="M119" s="6" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="N119" s="4" t="n">
-        <v>4.2</v>
+        <v>0</v>
       </c>
       <c r="O119" s="7" t="inlineStr">
         <is>
@@ -10137,25 +10137,25 @@
         </is>
       </c>
       <c r="P119" s="3" t="n">
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="Q119" s="3" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="R119" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S119" s="2" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="T119" s="3" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="U119" s="8" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="120">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" hidden="1">
       <c r="A120" s="2" t="inlineStr">
         <is>
           <t>2301080036</t>
@@ -10207,10 +10207,10 @@
         <v>-1</v>
       </c>
       <c r="M120" s="6" t="n">
-        <v>4.1</v>
+        <v>0</v>
       </c>
       <c r="N120" s="4" t="n">
-        <v>2.46</v>
+        <v>0</v>
       </c>
       <c r="O120" s="7" t="inlineStr">
         <is>
@@ -10218,25 +10218,25 @@
         </is>
       </c>
       <c r="P120" s="3" t="n">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="Q120" s="3" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="R120" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S120" s="2" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="T120" s="3" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="U120" s="8" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="121">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" hidden="1">
       <c r="A121" s="2" t="inlineStr">
         <is>
           <t>2301080037</t>
@@ -10288,10 +10288,10 @@
         <v>-1</v>
       </c>
       <c r="M121" s="6" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="N121" s="4" t="n">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="O121" s="7" t="inlineStr">
         <is>
@@ -10299,10 +10299,10 @@
         </is>
       </c>
       <c r="P121" s="3" t="n">
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="Q121" s="3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="R121" s="2" t="n">
         <v>0</v>
@@ -10314,10 +10314,10 @@
         <v>0</v>
       </c>
       <c r="U121" s="8" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="122">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" hidden="1">
       <c r="A122" s="2" t="inlineStr">
         <is>
           <t>2301080038</t>
@@ -10369,10 +10369,10 @@
         <v>-2</v>
       </c>
       <c r="M122" s="6" t="n">
-        <v>2.8</v>
+        <v>0</v>
       </c>
       <c r="N122" s="4" t="n">
-        <v>1.68</v>
+        <v>0</v>
       </c>
       <c r="O122" s="7" t="inlineStr">
         <is>
@@ -10380,10 +10380,10 @@
         </is>
       </c>
       <c r="P122" s="3" t="n">
-        <v>0</v>
+        <v>84</v>
       </c>
       <c r="Q122" s="3" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="R122" s="2" t="n">
         <v>0</v>
@@ -10395,7 +10395,7 @@
         <v>0</v>
       </c>
       <c r="U122" s="8" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123">
@@ -10450,10 +10450,10 @@
         <v>-1</v>
       </c>
       <c r="M123" s="6" t="n">
-        <v>0.8</v>
+        <v>2</v>
       </c>
       <c r="N123" s="4" t="n">
-        <v>0.48</v>
+        <v>1.2</v>
       </c>
       <c r="O123" s="7" t="inlineStr">
         <is>
@@ -10470,13 +10470,13 @@
         <v>0</v>
       </c>
       <c r="S123" s="2" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="T123" s="3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="U123" s="8" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="124">
@@ -10531,10 +10531,10 @@
         <v>1</v>
       </c>
       <c r="M124" s="6" t="n">
-        <v>3.32</v>
+        <v>0.95</v>
       </c>
       <c r="N124" s="4" t="n">
-        <v>1.99</v>
+        <v>0.57</v>
       </c>
       <c r="O124" s="7" t="inlineStr">
         <is>
@@ -10542,10 +10542,10 @@
         </is>
       </c>
       <c r="P124" s="3" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="Q124" s="3" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="R124" s="2" t="n">
         <v>0</v>
@@ -10557,7 +10557,7 @@
         <v>0</v>
       </c>
       <c r="U124" s="8" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="125">
@@ -10641,7 +10641,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="126">
+    <row r="126" hidden="1">
       <c r="A126" s="2" t="inlineStr">
         <is>
           <t>2301080052</t>
@@ -10690,13 +10690,13 @@
         <v>1</v>
       </c>
       <c r="L126" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M126" s="6" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="N126" s="4" t="n">
-        <v>10.8</v>
+        <v>0</v>
       </c>
       <c r="O126" s="7" t="inlineStr">
         <is>
@@ -10704,25 +10704,25 @@
         </is>
       </c>
       <c r="P126" s="3" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="Q126" s="3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="R126" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S126" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T126" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U126" s="8" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="127">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" hidden="1">
       <c r="A127" s="2" t="inlineStr">
         <is>
           <t>2301080053</t>
@@ -10774,10 +10774,10 @@
         <v>-1</v>
       </c>
       <c r="M127" s="6" t="n">
-        <v>1.1</v>
+        <v>0</v>
       </c>
       <c r="N127" s="4" t="n">
-        <v>0.66</v>
+        <v>0</v>
       </c>
       <c r="O127" s="7" t="inlineStr">
         <is>
@@ -10785,25 +10785,25 @@
         </is>
       </c>
       <c r="P127" s="3" t="n">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="Q127" s="3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R127" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S127" s="2" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="T127" s="3" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="U127" s="8" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="128">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" hidden="1">
       <c r="A128" s="2" t="inlineStr">
         <is>
           <t>2301080060</t>
@@ -10855,10 +10855,10 @@
         <v>1</v>
       </c>
       <c r="M128" s="6" t="n">
-        <v>5.8</v>
+        <v>0</v>
       </c>
       <c r="N128" s="4" t="n">
-        <v>3.48</v>
+        <v>0</v>
       </c>
       <c r="O128" s="7" t="inlineStr">
         <is>
@@ -10866,25 +10866,25 @@
         </is>
       </c>
       <c r="P128" s="3" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="Q128" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R128" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S128" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="R128" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="S128" s="2" t="n">
-        <v>0</v>
-      </c>
       <c r="T128" s="3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U128" s="8" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="129">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" hidden="1">
       <c r="A129" s="2" t="inlineStr">
         <is>
           <t>2301080061</t>
@@ -10936,10 +10936,10 @@
         <v>0</v>
       </c>
       <c r="M129" s="6" t="n">
-        <v>5.8</v>
+        <v>0</v>
       </c>
       <c r="N129" s="4" t="n">
-        <v>3.48</v>
+        <v>0</v>
       </c>
       <c r="O129" s="7" t="inlineStr">
         <is>
@@ -10947,25 +10947,25 @@
         </is>
       </c>
       <c r="P129" s="3" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="Q129" s="3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R129" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S129" s="2" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="T129" s="3" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="U129" s="8" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="130">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" hidden="1">
       <c r="A130" s="2" t="inlineStr">
         <is>
           <t>2301080087</t>
@@ -11017,10 +11017,10 @@
         <v>0</v>
       </c>
       <c r="M130" s="6" t="n">
-        <v>6.25</v>
+        <v>0</v>
       </c>
       <c r="N130" s="4" t="n">
-        <v>3.75</v>
+        <v>0</v>
       </c>
       <c r="O130" s="7" t="inlineStr">
         <is>
@@ -11028,22 +11028,22 @@
         </is>
       </c>
       <c r="P130" s="3" t="n">
-        <v>0</v>
+        <v>197</v>
       </c>
       <c r="Q130" s="3" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="R130" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S130" s="2" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="T130" s="3" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="U130" s="8" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131">
@@ -11208,7 +11208,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="133">
+    <row r="133" hidden="1">
       <c r="A133" s="2" t="inlineStr">
         <is>
           <t>2301080091</t>
@@ -11260,10 +11260,10 @@
         <v>0</v>
       </c>
       <c r="M133" s="6" t="n">
-        <v>3.35</v>
+        <v>0</v>
       </c>
       <c r="N133" s="4" t="n">
-        <v>2.01</v>
+        <v>0</v>
       </c>
       <c r="O133" s="7" t="inlineStr">
         <is>
@@ -11271,22 +11271,22 @@
         </is>
       </c>
       <c r="P133" s="3" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="Q133" s="3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R133" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S133" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T133" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U133" s="8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134">
@@ -11532,7 +11532,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137">
+    <row r="137" hidden="1">
       <c r="A137" s="2" t="inlineStr">
         <is>
           <t>2101010019</t>
@@ -11584,10 +11584,10 @@
         <v>1</v>
       </c>
       <c r="M137" s="6" t="n">
-        <v>10.2</v>
+        <v>0</v>
       </c>
       <c r="N137" s="4" t="n">
-        <v>6.12</v>
+        <v>0</v>
       </c>
       <c r="O137" s="7" t="inlineStr">
         <is>
@@ -11595,10 +11595,10 @@
         </is>
       </c>
       <c r="P137" s="3" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Q137" s="3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="R137" s="2" t="n">
         <v>0</v>
@@ -11610,10 +11610,10 @@
         <v>1</v>
       </c>
       <c r="U137" s="8" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="138">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" hidden="1">
       <c r="A138" s="2" t="inlineStr">
         <is>
           <t>2101030001</t>
@@ -11662,13 +11662,13 @@
         <v>1</v>
       </c>
       <c r="L138" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M138" s="6" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="N138" s="4" t="n">
-        <v>4.2</v>
+        <v>0</v>
       </c>
       <c r="O138" s="7" t="inlineStr">
         <is>
@@ -11676,10 +11676,10 @@
         </is>
       </c>
       <c r="P138" s="3" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Q138" s="3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R138" s="2" t="n">
         <v>0</v>
@@ -11691,7 +11691,7 @@
         <v>0</v>
       </c>
       <c r="U138" s="8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139" hidden="1">
@@ -11775,7 +11775,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140">
+    <row r="140" hidden="1">
       <c r="A140" s="2" t="inlineStr">
         <is>
           <t>2103020001</t>
@@ -11827,10 +11827,10 @@
         <v>0</v>
       </c>
       <c r="M140" s="6" t="n">
-        <v>20.33</v>
+        <v>0</v>
       </c>
       <c r="N140" s="4" t="n">
-        <v>12.2</v>
+        <v>0</v>
       </c>
       <c r="O140" s="7" t="inlineStr">
         <is>
@@ -11838,10 +11838,10 @@
         </is>
       </c>
       <c r="P140" s="3" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Q140" s="3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R140" s="2" t="n">
         <v>0</v>
@@ -11853,7 +11853,7 @@
         <v>1</v>
       </c>
       <c r="U140" s="8" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141" hidden="1">
@@ -11905,7 +11905,7 @@
         <v>1</v>
       </c>
       <c r="L141" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M141" s="6" t="n">
         <v>0</v>
@@ -11937,7 +11937,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142">
+    <row r="142" hidden="1">
       <c r="A142" s="2" t="inlineStr">
         <is>
           <t>2201040007</t>
@@ -11989,10 +11989,10 @@
         <v>1</v>
       </c>
       <c r="M142" s="6" t="n">
-        <v>12.9</v>
+        <v>0</v>
       </c>
       <c r="N142" s="4" t="n">
-        <v>7.74</v>
+        <v>0</v>
       </c>
       <c r="O142" s="7" t="inlineStr">
         <is>
@@ -12000,25 +12000,25 @@
         </is>
       </c>
       <c r="P142" s="3" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="Q142" s="3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="R142" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S142" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T142" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U142" s="8" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="143">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" hidden="1">
       <c r="A143" s="2" t="inlineStr">
         <is>
           <t>2201040015</t>
@@ -12070,10 +12070,10 @@
         <v>0</v>
       </c>
       <c r="M143" s="6" t="n">
-        <v>13.12</v>
+        <v>0</v>
       </c>
       <c r="N143" s="4" t="n">
-        <v>7.87</v>
+        <v>0</v>
       </c>
       <c r="O143" s="7" t="inlineStr">
         <is>
@@ -12081,10 +12081,10 @@
         </is>
       </c>
       <c r="P143" s="3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Q143" s="3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="R143" s="2" t="n">
         <v>0</v>
@@ -12096,7 +12096,7 @@
         <v>0</v>
       </c>
       <c r="U143" s="8" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144" hidden="1">
@@ -12180,7 +12180,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145">
+    <row r="145" hidden="1">
       <c r="A145" s="2" t="inlineStr">
         <is>
           <t>2201040026</t>
@@ -12232,10 +12232,10 @@
         <v>1</v>
       </c>
       <c r="M145" s="6" t="n">
-        <v>12.9</v>
+        <v>0</v>
       </c>
       <c r="N145" s="4" t="n">
-        <v>7.74</v>
+        <v>0</v>
       </c>
       <c r="O145" s="7" t="inlineStr">
         <is>
@@ -12243,10 +12243,10 @@
         </is>
       </c>
       <c r="P145" s="3" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="Q145" s="3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R145" s="2" t="n">
         <v>0</v>
@@ -12258,7 +12258,7 @@
         <v>1</v>
       </c>
       <c r="U145" s="8" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146" hidden="1">
@@ -12342,7 +12342,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147">
+    <row r="147" hidden="1">
       <c r="A147" s="2" t="inlineStr">
         <is>
           <t>2203020003</t>
@@ -12394,10 +12394,10 @@
         <v>0</v>
       </c>
       <c r="M147" s="6" t="n">
-        <v>5.35</v>
+        <v>0</v>
       </c>
       <c r="N147" s="4" t="n">
-        <v>3.21</v>
+        <v>0</v>
       </c>
       <c r="O147" s="7" t="inlineStr">
         <is>
@@ -12405,22 +12405,22 @@
         </is>
       </c>
       <c r="P147" s="3" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Q147" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R147" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S147" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="R147" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="S147" s="2" t="n">
-        <v>0</v>
-      </c>
       <c r="T147" s="3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U147" s="8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148">
@@ -12504,7 +12504,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="149">
+    <row r="149" hidden="1">
       <c r="A149" s="2" t="inlineStr">
         <is>
           <t>2301090014</t>
@@ -12553,13 +12553,13 @@
         <v>1</v>
       </c>
       <c r="L149" s="3" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="M149" s="6" t="n">
-        <v>3.9</v>
+        <v>0</v>
       </c>
       <c r="N149" s="4" t="n">
-        <v>2.34</v>
+        <v>0</v>
       </c>
       <c r="O149" s="7" t="inlineStr">
         <is>
@@ -12567,10 +12567,10 @@
         </is>
       </c>
       <c r="P149" s="3" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="Q149" s="3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="R149" s="2" t="n">
         <v>0</v>
@@ -12582,7 +12582,7 @@
         <v>0</v>
       </c>
       <c r="U149" s="8" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150">
@@ -12666,7 +12666,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="151">
+    <row r="151" hidden="1">
       <c r="A151" s="2" t="inlineStr">
         <is>
           <t>2301090093</t>
@@ -12715,13 +12715,13 @@
         <v>1</v>
       </c>
       <c r="L151" s="3" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="M151" s="6" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N151" s="4" t="n">
-        <v>1.8</v>
+        <v>0</v>
       </c>
       <c r="O151" s="7" t="inlineStr">
         <is>
@@ -12729,25 +12729,25 @@
         </is>
       </c>
       <c r="P151" s="3" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="Q151" s="3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="R151" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S151" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T151" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U151" s="8" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="152">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" hidden="1">
       <c r="A152" s="2" t="inlineStr">
         <is>
           <t>2301100007</t>
@@ -12799,10 +12799,10 @@
         <v>0</v>
       </c>
       <c r="M152" s="6" t="n">
-        <v>7.5</v>
+        <v>0</v>
       </c>
       <c r="N152" s="4" t="n">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="O152" s="7" t="inlineStr">
         <is>
@@ -12810,22 +12810,22 @@
         </is>
       </c>
       <c r="P152" s="3" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="Q152" s="3" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="R152" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S152" s="2" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="T152" s="3" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="U152" s="8" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153">
@@ -12880,10 +12880,10 @@
         <v>0</v>
       </c>
       <c r="M153" s="6" t="n">
-        <v>2.92</v>
+        <v>5.85</v>
       </c>
       <c r="N153" s="4" t="n">
-        <v>1.75</v>
+        <v>3.51</v>
       </c>
       <c r="O153" s="7" t="inlineStr">
         <is>
@@ -12900,16 +12900,16 @@
         <v>0</v>
       </c>
       <c r="S153" s="2" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="T153" s="3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="U153" s="8" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="154">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="154" hidden="1">
       <c r="A154" s="2" t="inlineStr">
         <is>
           <t>2101040006</t>
@@ -12958,13 +12958,13 @@
         <v>1</v>
       </c>
       <c r="L154" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M154" s="6" t="n">
-        <v>5.85</v>
+        <v>0</v>
       </c>
       <c r="N154" s="4" t="n">
-        <v>3.51</v>
+        <v>0</v>
       </c>
       <c r="O154" s="7" t="inlineStr">
         <is>
@@ -12972,22 +12972,22 @@
         </is>
       </c>
       <c r="P154" s="3" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Q154" s="3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R154" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S154" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T154" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U154" s="8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155">
@@ -13039,7 +13039,7 @@
         <v>1</v>
       </c>
       <c r="L155" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M155" s="6" t="n">
         <v>44.65</v>
@@ -13120,7 +13120,7 @@
         <v>1</v>
       </c>
       <c r="L156" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M156" s="6" t="n">
         <v>0</v>
@@ -13233,7 +13233,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="158">
+    <row r="158" hidden="1">
       <c r="A158" s="2" t="inlineStr">
         <is>
           <t>2704050022</t>
@@ -13285,10 +13285,10 @@
         <v>0</v>
       </c>
       <c r="M158" s="6" t="n">
-        <v>19.4</v>
+        <v>0</v>
       </c>
       <c r="N158" s="4" t="n">
-        <v>11.64</v>
+        <v>0</v>
       </c>
       <c r="O158" s="7" t="inlineStr">
         <is>
@@ -13296,10 +13296,10 @@
         </is>
       </c>
       <c r="P158" s="3" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="Q158" s="3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R158" s="2" t="n">
         <v>0</v>
@@ -13311,10 +13311,10 @@
         <v>0</v>
       </c>
       <c r="U158" s="8" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="159">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" hidden="1">
       <c r="A159" s="2" t="inlineStr">
         <is>
           <t>2301010001</t>
@@ -13366,10 +13366,10 @@
         <v>0</v>
       </c>
       <c r="M159" s="6" t="n">
-        <v>88.59999999999999</v>
+        <v>0</v>
       </c>
       <c r="N159" s="4" t="n">
-        <v>53.16</v>
+        <v>0</v>
       </c>
       <c r="O159" s="7" t="inlineStr">
         <is>
@@ -13377,10 +13377,10 @@
         </is>
       </c>
       <c r="P159" s="3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q159" s="3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R159" s="2" t="n">
         <v>0</v>
@@ -13392,7 +13392,7 @@
         <v>0</v>
       </c>
       <c r="U159" s="8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="160" hidden="1">
@@ -13719,7 +13719,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="164">
+    <row r="164" hidden="1">
       <c r="A164" s="2" t="inlineStr">
         <is>
           <t>2301030048</t>
@@ -13771,10 +13771,10 @@
         <v>0</v>
       </c>
       <c r="M164" s="6" t="n">
-        <v>85.3</v>
+        <v>0</v>
       </c>
       <c r="N164" s="4" t="n">
-        <v>51.18</v>
+        <v>0</v>
       </c>
       <c r="O164" s="7" t="inlineStr">
         <is>
@@ -13782,10 +13782,10 @@
         </is>
       </c>
       <c r="P164" s="3" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Q164" s="3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R164" s="2" t="n">
         <v>0</v>
@@ -13797,7 +13797,7 @@
         <v>0</v>
       </c>
       <c r="U164" s="8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="165">
@@ -13881,7 +13881,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="166">
+    <row r="166" hidden="1">
       <c r="A166" s="2" t="inlineStr">
         <is>
           <t>2401030022</t>
@@ -13933,10 +13933,10 @@
         <v>0</v>
       </c>
       <c r="M166" s="6" t="n">
-        <v>69.7</v>
+        <v>0</v>
       </c>
       <c r="N166" s="4" t="n">
-        <v>41.82</v>
+        <v>0</v>
       </c>
       <c r="O166" s="7" t="inlineStr">
         <is>
@@ -13944,10 +13944,10 @@
         </is>
       </c>
       <c r="P166" s="3" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="Q166" s="3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R166" s="2" t="n">
         <v>0</v>
@@ -13959,10 +13959,10 @@
         <v>0</v>
       </c>
       <c r="U166" s="8" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="167">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" hidden="1">
       <c r="A167" s="2" t="inlineStr">
         <is>
           <t>2404030016</t>
@@ -13975,7 +13975,7 @@
       </c>
       <c r="C167" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">20L      </t>
+          <t xml:space="preserve">10L      </t>
         </is>
       </c>
       <c r="D167" s="2" t="inlineStr">
@@ -13992,10 +13992,10 @@
         <v>1</v>
       </c>
       <c r="G167" s="4" t="n">
-        <v>34.45</v>
+        <v>17.1</v>
       </c>
       <c r="H167" s="4" t="n">
-        <v>13.78</v>
+        <v>6.84</v>
       </c>
       <c r="I167" s="5" t="inlineStr">
         <is>
@@ -14014,10 +14014,10 @@
         <v>0</v>
       </c>
       <c r="M167" s="6" t="n">
-        <v>137.8</v>
+        <v>0</v>
       </c>
       <c r="N167" s="4" t="n">
-        <v>82.68000000000001</v>
+        <v>0</v>
       </c>
       <c r="O167" s="7" t="inlineStr">
         <is>
@@ -14025,10 +14025,10 @@
         </is>
       </c>
       <c r="P167" s="3" t="n">
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="Q167" s="3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R167" s="2" t="n">
         <v>0</v>
@@ -14040,7 +14040,7 @@
         <v>2</v>
       </c>
       <c r="U167" s="8" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="168" hidden="1">
@@ -14056,7 +14056,7 @@
       </c>
       <c r="C168" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">10L      </t>
+          <t xml:space="preserve">20L      </t>
         </is>
       </c>
       <c r="D168" s="2" t="inlineStr">
@@ -14073,10 +14073,10 @@
         <v>1</v>
       </c>
       <c r="G168" s="4" t="n">
-        <v>17.1</v>
+        <v>34.45</v>
       </c>
       <c r="H168" s="4" t="n">
-        <v>6.84</v>
+        <v>13.78</v>
       </c>
       <c r="I168" s="5" t="inlineStr">
         <is>
@@ -14092,7 +14092,7 @@
         <v>1</v>
       </c>
       <c r="L168" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M168" s="6" t="n">
         <v>0</v>
@@ -14106,7 +14106,7 @@
         </is>
       </c>
       <c r="P168" s="3" t="n">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="Q168" s="3" t="n">
         <v>0</v>
@@ -14173,7 +14173,7 @@
         <v>1</v>
       </c>
       <c r="L169" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M169" s="6" t="n">
         <v>10.65</v>
@@ -14205,7 +14205,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="170">
+    <row r="170" hidden="1">
       <c r="A170" s="2" t="inlineStr">
         <is>
           <t>2301120001</t>
@@ -14268,10 +14268,10 @@
         </is>
       </c>
       <c r="P170" s="3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Q170" s="3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R170" s="2" t="n">
         <v>0</v>
@@ -14283,7 +14283,7 @@
         <v>0</v>
       </c>
       <c r="U170" s="8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="171">
@@ -14821,7 +14821,7 @@
         <v>1</v>
       </c>
       <c r="L177" s="3" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="M177" s="6" t="n">
         <v>0</v>
@@ -14934,7 +14934,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179">
+    <row r="179" hidden="1">
       <c r="A179" s="2" t="inlineStr">
         <is>
           <t>2301010117</t>
@@ -14947,7 +14947,7 @@
       </c>
       <c r="C179" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">300G     </t>
+          <t xml:space="preserve">100G     </t>
         </is>
       </c>
       <c r="D179" s="2" t="inlineStr">
@@ -14964,10 +14964,10 @@
         <v>2</v>
       </c>
       <c r="G179" s="4" t="n">
-        <v>3.6</v>
+        <v>1.68</v>
       </c>
       <c r="H179" s="4" t="n">
-        <v>1.44</v>
+        <v>0.67</v>
       </c>
       <c r="I179" s="5" t="inlineStr">
         <is>
@@ -14986,10 +14986,10 @@
         <v>0</v>
       </c>
       <c r="M179" s="6" t="n">
-        <v>14.4</v>
+        <v>0</v>
       </c>
       <c r="N179" s="4" t="n">
-        <v>8.640000000000001</v>
+        <v>0</v>
       </c>
       <c r="O179" s="7" t="inlineStr">
         <is>
@@ -14997,22 +14997,22 @@
         </is>
       </c>
       <c r="P179" s="3" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="Q179" s="3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="R179" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S179" s="2" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="T179" s="3" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="U179" s="8" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="180" hidden="1">
@@ -15028,7 +15028,7 @@
       </c>
       <c r="C180" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">100G     </t>
+          <t xml:space="preserve">300G     </t>
         </is>
       </c>
       <c r="D180" s="2" t="inlineStr">
@@ -15045,10 +15045,10 @@
         <v>2</v>
       </c>
       <c r="G180" s="4" t="n">
-        <v>1.68</v>
+        <v>3.6</v>
       </c>
       <c r="H180" s="4" t="n">
-        <v>0.67</v>
+        <v>1.44</v>
       </c>
       <c r="I180" s="5" t="inlineStr">
         <is>
@@ -15078,7 +15078,7 @@
         </is>
       </c>
       <c r="P180" s="3" t="n">
-        <v>26</v>
+        <v>4</v>
       </c>
       <c r="Q180" s="3" t="n">
         <v>0</v>
@@ -15087,16 +15087,16 @@
         <v>0</v>
       </c>
       <c r="S180" s="2" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="T180" s="3" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="U180" s="8" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="181">
+    <row r="181" hidden="1">
       <c r="A181" s="2" t="inlineStr">
         <is>
           <t>2301180001</t>
@@ -15148,10 +15148,10 @@
         <v>0</v>
       </c>
       <c r="M181" s="6" t="n">
-        <v>198.98</v>
+        <v>0</v>
       </c>
       <c r="N181" s="4" t="n">
-        <v>119.39</v>
+        <v>0</v>
       </c>
       <c r="O181" s="7" t="inlineStr">
         <is>
@@ -15159,10 +15159,10 @@
         </is>
       </c>
       <c r="P181" s="3" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="Q181" s="3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="R181" s="2" t="n">
         <v>0</v>
@@ -15174,7 +15174,7 @@
         <v>0</v>
       </c>
       <c r="U181" s="8" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="182">
@@ -15190,7 +15190,7 @@
       </c>
       <c r="C182" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">7KG      </t>
+          <t xml:space="preserve">2KG      </t>
         </is>
       </c>
       <c r="D182" s="2" t="inlineStr">
@@ -15207,10 +15207,10 @@
         <v>2</v>
       </c>
       <c r="G182" s="4" t="n">
-        <v>52.82</v>
+        <v>15.25</v>
       </c>
       <c r="H182" s="4" t="n">
-        <v>21.13</v>
+        <v>6.1</v>
       </c>
       <c r="I182" s="5" t="inlineStr">
         <is>
@@ -15219,20 +15219,20 @@
       </c>
       <c r="J182" s="2" t="inlineStr">
         <is>
-          <t>MANTENER</t>
+          <t>AUMENTAR 39%</t>
         </is>
       </c>
       <c r="K182" s="3" t="n">
         <v>1</v>
       </c>
       <c r="L182" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M182" s="6" t="n">
-        <v>158.48</v>
+        <v>15.25</v>
       </c>
       <c r="N182" s="4" t="n">
-        <v>95.09</v>
+        <v>9.15</v>
       </c>
       <c r="O182" s="7" t="inlineStr">
         <is>
@@ -15240,25 +15240,25 @@
         </is>
       </c>
       <c r="P182" s="3" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Q182" s="3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="R182" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S182" s="2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T182" s="3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U182" s="8" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="183">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="183" hidden="1">
       <c r="A183" s="2" t="inlineStr">
         <is>
           <t>2301180003</t>
@@ -15271,7 +15271,7 @@
       </c>
       <c r="C183" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">2KG      </t>
+          <t xml:space="preserve">7KG      </t>
         </is>
       </c>
       <c r="D183" s="2" t="inlineStr">
@@ -15288,10 +15288,10 @@
         <v>2</v>
       </c>
       <c r="G183" s="4" t="n">
-        <v>15.25</v>
+        <v>52.82</v>
       </c>
       <c r="H183" s="4" t="n">
-        <v>6.1</v>
+        <v>21.13</v>
       </c>
       <c r="I183" s="5" t="inlineStr">
         <is>
@@ -15300,20 +15300,20 @@
       </c>
       <c r="J183" s="2" t="inlineStr">
         <is>
-          <t>AUMENTAR 39%</t>
+          <t>MANTENER</t>
         </is>
       </c>
       <c r="K183" s="3" t="n">
         <v>1</v>
       </c>
       <c r="L183" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M183" s="6" t="n">
-        <v>15.25</v>
+        <v>0</v>
       </c>
       <c r="N183" s="4" t="n">
-        <v>9.15</v>
+        <v>0</v>
       </c>
       <c r="O183" s="7" t="inlineStr">
         <is>
@@ -15330,13 +15330,13 @@
         <v>0</v>
       </c>
       <c r="S183" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T183" s="3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U183" s="8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="184" hidden="1">
@@ -15420,7 +15420,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185">
+    <row r="185" hidden="1">
       <c r="A185" s="2" t="inlineStr">
         <is>
           <t>2301180006</t>
@@ -15472,10 +15472,10 @@
         <v>0</v>
       </c>
       <c r="M185" s="6" t="n">
-        <v>80.84999999999999</v>
+        <v>0</v>
       </c>
       <c r="N185" s="4" t="n">
-        <v>48.51</v>
+        <v>0</v>
       </c>
       <c r="O185" s="7" t="inlineStr">
         <is>
@@ -15483,10 +15483,10 @@
         </is>
       </c>
       <c r="P185" s="3" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Q185" s="3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R185" s="2" t="n">
         <v>0</v>
@@ -15498,7 +15498,7 @@
         <v>1</v>
       </c>
       <c r="U185" s="8" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="186" hidden="1">
@@ -15796,10 +15796,10 @@
         <v>0</v>
       </c>
       <c r="M189" s="6" t="n">
-        <v>134.9</v>
+        <v>67.45</v>
       </c>
       <c r="N189" s="4" t="n">
-        <v>80.94</v>
+        <v>40.47</v>
       </c>
       <c r="O189" s="7" t="inlineStr">
         <is>
@@ -15807,10 +15807,10 @@
         </is>
       </c>
       <c r="P189" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q189" s="3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R189" s="2" t="n">
         <v>0</v>
@@ -15822,7 +15822,7 @@
         <v>0</v>
       </c>
       <c r="U189" s="8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="190">
@@ -15906,7 +15906,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="191">
+    <row r="191" hidden="1">
       <c r="A191" s="2" t="inlineStr">
         <is>
           <t>2401010007</t>
@@ -15958,10 +15958,10 @@
         <v>0</v>
       </c>
       <c r="M191" s="6" t="n">
-        <v>3.35</v>
+        <v>0</v>
       </c>
       <c r="N191" s="4" t="n">
-        <v>2.01</v>
+        <v>0</v>
       </c>
       <c r="O191" s="7" t="inlineStr">
         <is>
@@ -15969,25 +15969,25 @@
         </is>
       </c>
       <c r="P191" s="3" t="n">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="Q191" s="3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R191" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S191" s="2" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="T191" s="3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="U191" s="8" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="192">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" hidden="1">
       <c r="A192" s="2" t="inlineStr">
         <is>
           <t>2401010009</t>
@@ -16039,10 +16039,10 @@
         <v>2</v>
       </c>
       <c r="M192" s="6" t="n">
-        <v>16.75</v>
+        <v>0</v>
       </c>
       <c r="N192" s="4" t="n">
-        <v>10.05</v>
+        <v>0</v>
       </c>
       <c r="O192" s="7" t="inlineStr">
         <is>
@@ -16050,25 +16050,25 @@
         </is>
       </c>
       <c r="P192" s="3" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="Q192" s="3" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="R192" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S192" s="2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T192" s="3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U192" s="8" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="193">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" hidden="1">
       <c r="A193" s="2" t="inlineStr">
         <is>
           <t>2401010010</t>
@@ -16120,10 +16120,10 @@
         <v>-2</v>
       </c>
       <c r="M193" s="6" t="n">
-        <v>3.35</v>
+        <v>0</v>
       </c>
       <c r="N193" s="4" t="n">
-        <v>2.01</v>
+        <v>0</v>
       </c>
       <c r="O193" s="7" t="inlineStr">
         <is>
@@ -16131,25 +16131,25 @@
         </is>
       </c>
       <c r="P193" s="3" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="Q193" s="3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R193" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S193" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T193" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U193" s="8" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="194">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" hidden="1">
       <c r="A194" s="2" t="inlineStr">
         <is>
           <t>2401010012</t>
@@ -16201,10 +16201,10 @@
         <v>0</v>
       </c>
       <c r="M194" s="6" t="n">
-        <v>6.7</v>
+        <v>0</v>
       </c>
       <c r="N194" s="4" t="n">
-        <v>4.02</v>
+        <v>0</v>
       </c>
       <c r="O194" s="7" t="inlineStr">
         <is>
@@ -16212,25 +16212,25 @@
         </is>
       </c>
       <c r="P194" s="3" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="Q194" s="3" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="R194" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S194" s="2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T194" s="3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U194" s="8" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="195">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" hidden="1">
       <c r="A195" s="2" t="inlineStr">
         <is>
           <t>2401010016</t>
@@ -16282,10 +16282,10 @@
         <v>1</v>
       </c>
       <c r="M195" s="6" t="n">
-        <v>10.05</v>
+        <v>0</v>
       </c>
       <c r="N195" s="4" t="n">
-        <v>6.03</v>
+        <v>0</v>
       </c>
       <c r="O195" s="7" t="inlineStr">
         <is>
@@ -16293,25 +16293,25 @@
         </is>
       </c>
       <c r="P195" s="3" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="Q195" s="3" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="R195" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S195" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T195" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U195" s="8" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="196">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" hidden="1">
       <c r="A196" s="2" t="inlineStr">
         <is>
           <t>2401010018</t>
@@ -16363,10 +16363,10 @@
         <v>-4</v>
       </c>
       <c r="M196" s="6" t="n">
-        <v>3.35</v>
+        <v>0</v>
       </c>
       <c r="N196" s="4" t="n">
-        <v>2.01</v>
+        <v>0</v>
       </c>
       <c r="O196" s="7" t="inlineStr">
         <is>
@@ -16374,10 +16374,10 @@
         </is>
       </c>
       <c r="P196" s="3" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="Q196" s="3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R196" s="2" t="n">
         <v>0</v>
@@ -16389,10 +16389,10 @@
         <v>0</v>
       </c>
       <c r="U196" s="8" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="197">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" hidden="1">
       <c r="A197" s="2" t="inlineStr">
         <is>
           <t>2401010019</t>
@@ -16444,10 +16444,10 @@
         <v>-3</v>
       </c>
       <c r="M197" s="6" t="n">
-        <v>3.35</v>
+        <v>0</v>
       </c>
       <c r="N197" s="4" t="n">
-        <v>2.01</v>
+        <v>0</v>
       </c>
       <c r="O197" s="7" t="inlineStr">
         <is>
@@ -16455,10 +16455,10 @@
         </is>
       </c>
       <c r="P197" s="3" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="Q197" s="3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R197" s="2" t="n">
         <v>0</v>
@@ -16470,10 +16470,10 @@
         <v>0</v>
       </c>
       <c r="U197" s="8" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="198">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" hidden="1">
       <c r="A198" s="2" t="inlineStr">
         <is>
           <t>2401010020</t>
@@ -16525,10 +16525,10 @@
         <v>-2</v>
       </c>
       <c r="M198" s="6" t="n">
-        <v>3.35</v>
+        <v>0</v>
       </c>
       <c r="N198" s="4" t="n">
-        <v>2.01</v>
+        <v>0</v>
       </c>
       <c r="O198" s="7" t="inlineStr">
         <is>
@@ -16536,25 +16536,25 @@
         </is>
       </c>
       <c r="P198" s="3" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="Q198" s="3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R198" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S198" s="2" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="T198" s="3" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="U198" s="8" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="199">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" hidden="1">
       <c r="A199" s="2" t="inlineStr">
         <is>
           <t>2401010025</t>
@@ -16606,10 +16606,10 @@
         <v>1</v>
       </c>
       <c r="M199" s="6" t="n">
-        <v>10.05</v>
+        <v>0</v>
       </c>
       <c r="N199" s="4" t="n">
-        <v>6.03</v>
+        <v>0</v>
       </c>
       <c r="O199" s="7" t="inlineStr">
         <is>
@@ -16617,25 +16617,25 @@
         </is>
       </c>
       <c r="P199" s="3" t="n">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="Q199" s="3" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="R199" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S199" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T199" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U199" s="8" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="200">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" hidden="1">
       <c r="A200" s="2" t="inlineStr">
         <is>
           <t>2401010027</t>
@@ -16687,10 +16687,10 @@
         <v>0</v>
       </c>
       <c r="M200" s="6" t="n">
-        <v>3.35</v>
+        <v>0</v>
       </c>
       <c r="N200" s="4" t="n">
-        <v>2.01</v>
+        <v>0</v>
       </c>
       <c r="O200" s="7" t="inlineStr">
         <is>
@@ -16698,25 +16698,25 @@
         </is>
       </c>
       <c r="P200" s="3" t="n">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="Q200" s="3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R200" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S200" s="2" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="T200" s="3" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="U200" s="8" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="201">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" hidden="1">
       <c r="A201" s="2" t="inlineStr">
         <is>
           <t>2401110003</t>
@@ -16768,10 +16768,10 @@
         <v>0</v>
       </c>
       <c r="M201" s="6" t="n">
-        <v>87.65000000000001</v>
+        <v>0</v>
       </c>
       <c r="N201" s="4" t="n">
-        <v>52.59</v>
+        <v>0</v>
       </c>
       <c r="O201" s="7" t="inlineStr">
         <is>
@@ -16779,10 +16779,10 @@
         </is>
       </c>
       <c r="P201" s="3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Q201" s="3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R201" s="2" t="n">
         <v>0</v>
@@ -16794,7 +16794,7 @@
         <v>0</v>
       </c>
       <c r="U201" s="8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="202" hidden="1">
@@ -16878,7 +16878,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203">
+    <row r="203" hidden="1">
       <c r="A203" s="2" t="inlineStr">
         <is>
           <t>2401110011</t>
@@ -16930,10 +16930,10 @@
         <v>0</v>
       </c>
       <c r="M203" s="6" t="n">
-        <v>117.98</v>
+        <v>0</v>
       </c>
       <c r="N203" s="4" t="n">
-        <v>70.79000000000001</v>
+        <v>0</v>
       </c>
       <c r="O203" s="7" t="inlineStr">
         <is>
@@ -16941,10 +16941,10 @@
         </is>
       </c>
       <c r="P203" s="3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Q203" s="3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R203" s="2" t="n">
         <v>0</v>
@@ -16956,10 +16956,10 @@
         <v>1</v>
       </c>
       <c r="U203" s="8" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="204">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" hidden="1">
       <c r="A204" s="2" t="inlineStr">
         <is>
           <t>2102020007</t>
@@ -17011,10 +17011,10 @@
         <v>0</v>
       </c>
       <c r="M204" s="6" t="n">
-        <v>76.65000000000001</v>
+        <v>0</v>
       </c>
       <c r="N204" s="4" t="n">
-        <v>45.99</v>
+        <v>0</v>
       </c>
       <c r="O204" s="7" t="inlineStr">
         <is>
@@ -17022,10 +17022,10 @@
         </is>
       </c>
       <c r="P204" s="3" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="Q204" s="3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R204" s="2" t="n">
         <v>0</v>
@@ -17037,10 +17037,10 @@
         <v>0</v>
       </c>
       <c r="U204" s="8" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="205">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205" hidden="1">
       <c r="A205" s="2" t="inlineStr">
         <is>
           <t>2202010016</t>
@@ -17092,10 +17092,10 @@
         <v>0</v>
       </c>
       <c r="M205" s="6" t="n">
-        <v>6.65</v>
+        <v>0</v>
       </c>
       <c r="N205" s="4" t="n">
-        <v>3.99</v>
+        <v>0</v>
       </c>
       <c r="O205" s="7" t="inlineStr">
         <is>
@@ -17103,10 +17103,10 @@
         </is>
       </c>
       <c r="P205" s="3" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="Q205" s="3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R205" s="2" t="n">
         <v>0</v>
@@ -17118,7 +17118,7 @@
         <v>0</v>
       </c>
       <c r="U205" s="8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="206">
@@ -17170,7 +17170,7 @@
         <v>1</v>
       </c>
       <c r="L206" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M206" s="6" t="n">
         <v>1.3</v>
@@ -17202,7 +17202,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="207">
+    <row r="207" hidden="1">
       <c r="A207" s="2" t="inlineStr">
         <is>
           <t>2401010245</t>
@@ -17254,10 +17254,10 @@
         <v>0</v>
       </c>
       <c r="M207" s="6" t="n">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="N207" s="4" t="n">
-        <v>0.36</v>
+        <v>0</v>
       </c>
       <c r="O207" s="7" t="inlineStr">
         <is>
@@ -17265,10 +17265,10 @@
         </is>
       </c>
       <c r="P207" s="3" t="n">
-        <v>0</v>
+        <v>124</v>
       </c>
       <c r="Q207" s="3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R207" s="2" t="n">
         <v>0</v>
@@ -17280,7 +17280,7 @@
         <v>0</v>
       </c>
       <c r="U207" s="8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="208"/>
@@ -17298,7 +17298,7 @@
         </is>
       </c>
       <c r="C210" s="5" t="n">
-        <v>470</v>
+        <v>176</v>
       </c>
     </row>
     <row r="211">
@@ -17319,7 +17319,7 @@
       </c>
       <c r="C212" s="5" t="inlineStr">
         <is>
-          <t>7244.03€</t>
+          <t>3776.50€</t>
         </is>
       </c>
     </row>
@@ -17418,7 +17418,7 @@
         </is>
       </c>
       <c r="C221" s="5" t="n">
-        <v>26</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
